--- a/Assets/Data/Table/Convert/Character_Character.xlsx
+++ b/Assets/Data/Table/Convert/Character_Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B678B4F-A9A9-41C7-8C21-BD3711CC6996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4802ED8-1C89-44FA-AD51-2EDB61362582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CBF330FD-2A0D-4D8B-AFAB-19A4EE76BB80}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{CBF330FD-2A0D-4D8B-AFAB-19A4EE76BB80}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="10" r:id="rId1"/>
@@ -556,16 +556,6 @@
 Path</t>
   </si>
   <si>
-    <t>Enum.Character.
-CharacterType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum.Character.
-HitReactionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tb.String
 Character</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -595,6 +585,14 @@
   <si>
     <t>DetectValues_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Em.Character.
+CharacterType</t>
+  </si>
+  <si>
+    <t>Em.Character.
+HitReactionType</t>
   </si>
 </sst>
 </file>
@@ -1214,38 +1212,38 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="37.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.09765625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.09765625" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.69921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.25" style="10" customWidth="1"/>
-    <col min="17" max="17" width="15.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.19921875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="15.8984375" style="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.3984375" style="10" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.69921875" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.5" style="10" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.5" style="23" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16.5" style="10" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="37.875" style="1"/>
+    <col min="30" max="16384" width="37.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="87.6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1289,10 +1287,10 @@
         <v>40</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="20" t="s">
         <v>54</v>
@@ -1307,7 +1305,7 @@
         <v>38</v>
       </c>
       <c r="U1" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>12</v>
@@ -1334,7 +1332,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="34" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="34" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
@@ -1342,7 +1340,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>3</v>
@@ -1357,7 +1355,7 @@
         <v>22</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>23</v>
@@ -1378,10 +1376,10 @@
         <v>3</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P2" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="30" t="s">
         <v>3</v>
@@ -1399,16 +1397,16 @@
         <v>3</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W2" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X2" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y2" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Z2" s="33" t="s">
         <v>56</v>
@@ -1423,7 +1421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -1471,7 +1469,7 @@
         <v>27</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="13" t="s">
         <v>33</v>
@@ -1513,7 +1511,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -1603,10 +1601,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="H5" s="12"/>
     </row>
-    <row r="23" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y23" s="9"/>
     </row>
   </sheetData>
